--- a/wwwroot/Files/ForInput/Sheet2.xlsx
+++ b/wwwroot/Files/ForInput/Sheet2.xlsx
@@ -10,7 +10,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Sheet1">'Sheet1'!$A$1:$V$3</x:definedName>
+    <x:definedName name="Sheet1">'Sheet1'!$A$1:$W$15</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725" fullCalcOnLoad="true"/>
 </x:workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:V3"/>
+  <x:dimension ref="A1:W15"/>
   <x:sheetViews>
     <x:sheetView rightToLeft="false" tabSelected="1" workbookViewId="0">
       <x:selection activeCell="C5" sqref="C5"/>
@@ -462,6 +462,11 @@
           <x:t>Результат</x:t>
         </x:is>
       </x:c>
+      <x:c r="W1" s="0" t="inlineStr">
+        <x:is>
+          <x:t>номер В списке</x:t>
+        </x:is>
+      </x:c>
     </x:row>
     <x:row r="2" outlineLevel="0">
       <x:c r="A2" s="0" t="inlineStr">
@@ -574,6 +579,9 @@
           <x:t>0.3</x:t>
         </x:is>
       </x:c>
+      <x:c r="W2" s="0">
+        <x:v>6</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" outlineLevel="0">
       <x:c r="A3" s="0" t="inlineStr">
@@ -685,6 +693,1389 @@
         <x:is>
           <x:t>0.3</x:t>
         </x:is>
+      </x:c>
+      <x:c r="W3" s="0">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" outlineLevel="0">
+      <x:c r="A4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V4" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W4" s="0">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" outlineLevel="0">
+      <x:c r="A5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V5" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W5" s="0">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" outlineLevel="0">
+      <x:c r="A6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V6" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W6" s="0">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" outlineLevel="0">
+      <x:c r="A7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V7" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W7" s="0">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" outlineLevel="0">
+      <x:c r="A8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V8" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W8" s="0">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" outlineLevel="0">
+      <x:c r="A9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V9" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W9" s="0">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" outlineLevel="0">
+      <x:c r="A10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V10" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W10" s="0">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" outlineLevel="0">
+      <x:c r="A11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V11" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W11" s="0">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" outlineLevel="0">
+      <x:c r="A12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванов</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V12" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W12" s="0">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" outlineLevel="0">
+      <x:c r="A13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V13" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W13" s="0">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" outlineLevel="0">
+      <x:c r="A14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V14" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W14" s="0">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" outlineLevel="0">
+      <x:c r="A15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>МОНИКИ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>108</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Фамилия</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иван</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Иванович</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="I15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>М</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>89999999999</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="M15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>г.Москва</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>ул.Пушкина</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="Q15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>1900-01-01</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>test 0000</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="V15" s="0" t="inlineStr">
+        <x:is>
+          <x:t>0.3</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="W15" s="0">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
